--- a/biology/Botanique/Parc_du_Vivier/Parc_du_Vivier.xlsx
+++ b/biology/Botanique/Parc_du_Vivier/Parc_du_Vivier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc du Vivier est le principal parc de la commune d'Écully dans le Rhône. Créé par le paysagiste Gabriel Luizet, il abrite le château du Vivier, construit au XIXe siècle. Il fut pendant la Seconde Guerre mondiale un lieu de passage des troupes françaises.
